--- a/biology/Botanique/Phoenix_roebelenii/Phoenix_roebelenii.xlsx
+++ b/biology/Botanique/Phoenix_roebelenii/Phoenix_roebelenii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Phoenix roebelenii, le Dattier du Mékong ou Dattier nain, est une espèce de palmiers appartenant au genre Phoenix et à la famille des Arécacées. L'espèce est indigène des bords du Mékong, principalement au Laos et en Thaïlande.
 </t>
@@ -511,11 +523,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le stipe est fin (10 à 15 cm d'épaisseur[1]) et marqué de façon caractéristique par la base proéminente des anciens pétioles. Il n'atteint que 2 à 3 m de hauteur chez les spécimens les plus âgés[2].
-Les feuilles sont pennées, souples, d'un vert brillant très décoratif. De port arqué, elles atteignent 1 m de long[2].
-Les fleurs, petites et blanc crème ou jaunâtres, sont disposées en inflorescence entre les feuilles. Elles donnent des fruits sombres, presque noirs à maturité, elliptiques ou oblongs, mesurant 1,2 cm en moyenne[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le stipe est fin (10 à 15 cm d'épaisseur) et marqué de façon caractéristique par la base proéminente des anciens pétioles. Il n'atteint que 2 à 3 m de hauteur chez les spécimens les plus âgés.
+Les feuilles sont pennées, souples, d'un vert brillant très décoratif. De port arqué, elles atteignent 1 m de long.
+Les fleurs, petites et blanc crème ou jaunâtres, sont disposées en inflorescence entre les feuilles. Elles donnent des fruits sombres, presque noirs à maturité, elliptiques ou oblongs, mesurant 1,2 cm en moyenne.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Habitat et distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Originaire d’Indonésie[2], elle est cultivée ailleurs.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Originaire d’Indonésie, elle est cultivée ailleurs.
 C'est une espèce typiquement rhéophile, c'est-à-dire qui pousse le long des cours d'eau et qui peut être saisonnièrement inondée.
 </t>
         </is>
@@ -576,9 +592,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les fruits sont de toutes petites dattes comestibles [3] de 1 cm de longueur, renfermant une graine minuscule de la taille d'un grain d'avoine.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fruits sont de toutes petites dattes comestibles  de 1 cm de longueur, renfermant une graine minuscule de la taille d'un grain d'avoine.
 </t>
         </is>
       </c>
@@ -607,11 +625,13 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce montre une certaine capacité de résistance au froid, qui permet de l'acclimater dans les endroits les plus abrités. Il supporte des gels brefs de −4 °C à −5 °C [4].
-Phoenix roebelenii est devenu, ces dernières années, une plante d'intérieur très appréciée. Sa capacité à résister à la fois aux excès comme aux manques d'arrosage, aux intensités lumineuses réduites et à une atmosphère relativement sèche en fait un excellent palmier d'intérieur [3].
-Cette espèce a la capacité de métaboliser certaines toxines de l'air ambiant, comme le formaldéhyde et le xylène, mais cet effet est négligeable par rapport au besoin dans des conditions réelles[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce montre une certaine capacité de résistance au froid, qui permet de l'acclimater dans les endroits les plus abrités. Il supporte des gels brefs de −4 °C à −5 °C .
+Phoenix roebelenii est devenu, ces dernières années, une plante d'intérieur très appréciée. Sa capacité à résister à la fois aux excès comme aux manques d'arrosage, aux intensités lumineuses réduites et à une atmosphère relativement sèche en fait un excellent palmier d'intérieur .
+Cette espèce a la capacité de métaboliser certaines toxines de l'air ambiant, comme le formaldéhyde et le xylène, mais cet effet est négligeable par rapport au besoin dans des conditions réelles.
 </t>
         </is>
       </c>
